--- a/Organizasyon/Toplantı Kararları.xlsx
+++ b/Organizasyon/Toplantı Kararları.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzzzzzzzzzzzzzzzders\4-2\bilgisayar mimarisi\2025 proje\Pipelined-RISC-processor-design\Organizasyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435E5AA4-AEBB-4FA3-8F7F-B652F54C18DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8C7609-0118-4656-A7AD-566CAAB106E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Yazılım testi yapılacak.</t>
   </si>
@@ -64,16 +64,37 @@
   </si>
   <si>
     <t>Gerekli düzenlemelerden sonra toplantıda kararlaştırıldığı gibi yazılım testi yapılacak.</t>
+  </si>
+  <si>
+    <t>Sütun1</t>
+  </si>
+  <si>
+    <t>Toplam</t>
+  </si>
+  <si>
+    <t>Ortalama</t>
+  </si>
+  <si>
+    <t>Değişen Toplam</t>
+  </si>
+  <si>
+    <t>Say</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,10 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -387,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,93 +423,98 @@
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+    <row r="1" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>45789</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45790</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3">
+        <v>45790</v>
+      </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>